--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Code\HIWI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D998ABC1-1995-4A83-93C1-7D8153D3EC73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CDAC7-F462-B64F-A08D-1EF6CB164672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="16200" windowHeight="28035" activeTab="4" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="2740" yWindow="460" windowWidth="16200" windowHeight="19440" activeTab="4" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,14 +360,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,7 +376,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,7 +384,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,7 +393,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,7 +401,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,11 +551,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
+    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,7 +571,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,14 +870,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" style="3"/>
   </cols>
@@ -914,7 +914,7 @@
         <v>24</v>
       </c>
       <c r="D3" s="3">
-        <v>13000</v>
+        <v>19700</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1033,10 +1033,10 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1157,12 +1157,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1229,12 +1229,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1330,14 +1330,14 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1398,7 +1398,7 @@
         <v>77</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1444,12 +1444,12 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Code\HIWI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CDAC7-F462-B64F-A08D-1EF6CB164672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ED45EC-B988-461A-8082-6617BAEC8327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="460" windowWidth="16200" windowHeight="19440" activeTab="4" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="-38520" yWindow="8370" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -247,101 +247,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Name des Kupplung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbindung 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verbindung 2</t>
+  </si>
+  <si>
+    <t>ver1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aktivierungszustand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aktiv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[w]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leistung</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rad1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>verbindet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getrennt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kupplungszustand (aktiv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fahrzyklus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>braunschweig</t>
+  </si>
+  <si>
+    <t>manhattan</t>
+  </si>
+  <si>
+    <t>zentral-quer/front</t>
+  </si>
+  <si>
+    <t>Massenträgheiten_Get_An</t>
+  </si>
+  <si>
+    <t>Wirkungsgrad</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Wirkungsgrad_regnerativ</t>
+  </si>
+  <si>
+    <t>eta_reg</t>
+  </si>
+  <si>
+    <t>VKM1</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
     <t>K1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name des Kupplung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verbindung 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Verbindung 2</t>
-  </si>
-  <si>
-    <t>ver1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ver2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aktivierungszustand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aktiv</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[w]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Leistung</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rad1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>verbindet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>getrennt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kupplungszustand (aktiv)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fahrzyklus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>braunschweig</t>
-  </si>
-  <si>
-    <t>manhattan</t>
-  </si>
-  <si>
-    <t>zentral-quer/front</t>
-  </si>
-  <si>
-    <t>Massenträgheiten_Get_An</t>
-  </si>
-  <si>
-    <t>Wirkungsgrad</t>
-  </si>
-  <si>
-    <t>[-]</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Wirkungsgrad_regnerativ</t>
-  </si>
-  <si>
-    <t>eta_reg</t>
   </si>
 </sst>
 </file>
@@ -352,7 +357,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -360,14 +365,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,7 +381,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,7 +389,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,7 +398,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,7 +406,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -551,11 +556,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
-    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
-    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -571,7 +576,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -870,14 +875,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" style="3"/>
   </cols>
@@ -956,12 +961,12 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -1027,19 +1032,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796B5749-D9DE-4160-836C-D39E444DD9F5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1051,9 +1056,9 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
@@ -1061,53 +1066,55 @@
         <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1115,23 +1122,24 @@
       <c r="E5" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -1140,7 +1148,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:E5" xr:uid="{3E3DE5B0-0C94-4FD5-873D-E63862D9E2D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 E5 H5" xr:uid="{3E3DE5B0-0C94-4FD5-873D-E63862D9E2D3}">
       <formula1>$B$11:$B$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -1157,12 +1165,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1184,7 +1192,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1226,15 +1234,15 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1275,13 +1283,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1289,13 +1297,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
+      <c r="D5" s="3">
+        <v>0.8</v>
       </c>
       <c r="E5"/>
     </row>
@@ -1329,15 +1340,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC347EA-3D9E-4392-8EF9-F0F050640237}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1378,38 +1389,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D5" s="3">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D6" s="3">
         <v>0.5</v>
@@ -1440,16 +1454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1573,7 +1587,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -1588,12 +1602,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Matlab Code\HIWI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86ED45EC-B988-461A-8082-6617BAEC8327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202D8A5-DE55-4288-8C45-480F16145252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="8370" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="465" yWindow="8055" windowWidth="20490" windowHeight="18120" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -1498,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ARP_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/MATLAB/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202D8A5-DE55-4288-8C45-480F16145252}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67D3CA-2270-B14E-B5F0-1147B8B6A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="8055" windowWidth="20490" windowHeight="18120" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="460" yWindow="1780" windowWidth="33140" windowHeight="18120" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -347,6 +347,16 @@
   </si>
   <si>
     <t>K1</t>
+  </si>
+  <si>
+    <t>L-Bus_elektrisch</t>
+  </si>
+  <si>
+    <t>R-Bus_diesel</t>
+  </si>
+  <si>
+    <t>R-Bus_diesel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -357,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,14 +375,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -381,7 +391,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -389,7 +399,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -398,7 +408,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -406,7 +416,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -556,11 +566,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="60% - Accent4" xfId="4" builtinId="44"/>
-    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Accent4" xfId="3" builtinId="41"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 2" xfId="2" builtinId="33"/>
+    <cellStyle name="着色 4" xfId="3" builtinId="41"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,7 +586,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -878,11 +888,11 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="9" style="3"/>
   </cols>
@@ -1038,10 +1048,10 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1165,12 +1175,12 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1237,12 +1247,12 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1344,11 +1354,11 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1452,18 +1462,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1498,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1608,13 +1618,23 @@
     <row r="31" spans="1:1">
       <c r="A31" s="7" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{BB4041C5-FEC7-446C-9306-E5D85EC2F0F3}">
-      <formula1>$A$28:$A$31</formula1>
+      <formula1>$A$28:$A$33</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/MATLAB/ARP_2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67D3CA-2270-B14E-B5F0-1147B8B6A720}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36C6A8-15DC-6741-ABCC-B380A800328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="460" yWindow="1780" windowWidth="33140" windowHeight="18120" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -353,10 +353,10 @@
   </si>
   <si>
     <t>R-Bus_diesel</t>
-  </si>
-  <si>
-    <t>R-Bus_diesel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>logger-daten-H-bus</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1508,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1627,6 +1627,11 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1634,7 +1639,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3" xr:uid="{BB4041C5-FEC7-446C-9306-E5D85EC2F0F3}">
-      <formula1>$A$28:$A$33</formula1>
+      <formula1>$A$28:$A$3433</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F36C6A8-15DC-6741-ABCC-B380A800328B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D05B18-2ABE-274D-844A-138BDED4C280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1780" windowWidth="33140" windowHeight="18120" activeTab="5" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="460" yWindow="1780" windowWidth="33140" windowHeight="18120" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B4044A-25E0-4D9D-8553-31801B55667F}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B87345-A07B-45D0-91A7-0B969C3A4043}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="302" zoomScaleNormal="302" workbookViewId="0">
+    <sheetView zoomScale="174" zoomScaleNormal="302" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1464,7 +1464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD85F-C598-4FF5-9FAA-2140DEC5AF1C}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1508,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/Fahrzyklus.xlsx
+++ b/Fahrzyklus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zf/ARP_2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D05B18-2ABE-274D-844A-138BDED4C280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB54B81-9E81-6040-925E-FDC89878016D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="1780" windowWidth="33140" windowHeight="18120" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
+    <workbookView xWindow="33600" yWindow="2920" windowWidth="27320" windowHeight="20480" xr2:uid="{05A7550E-7E20-4F74-B6F8-030266226400}"/>
   </bookViews>
   <sheets>
     <sheet name="Fahrzeug" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>Masse des Fahrzeugs</t>
   </si>
@@ -357,6 +357,28 @@
   </si>
   <si>
     <t>logger-daten-H-bus</t>
+  </si>
+  <si>
+    <t>FZ2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rad2</t>
+  </si>
+  <si>
+    <t>0.009 0.0015 0.0004</t>
+  </si>
+  <si>
+    <t>Getriebe Wirkungsgrad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eta_getriebe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 0.8 0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -885,7 +907,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -894,10 +916,11 @@
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9" style="3"/>
+    <col min="5" max="6" width="22.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -908,17 +931,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,10 +955,13 @@
         <v>24</v>
       </c>
       <c r="D3" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E3" s="3">
         <v>19700</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,10 +972,13 @@
         <v>26</v>
       </c>
       <c r="D4" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="E4" s="3">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +991,11 @@
       <c r="D5" s="3">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -973,8 +1008,11 @@
       <c r="D6" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -987,8 +1025,11 @@
       <c r="D7" s="3">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1042,11 @@
       <c r="D8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1012,23 +1056,40 @@
       <c r="C9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -1169,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B87345-A07B-45D0-91A7-0B969C3A4043}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="174" zoomScaleNormal="302" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1181,9 +1242,10 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -1195,17 +1257,20 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1216,10 +1281,13 @@
         <v>25</v>
       </c>
       <c r="D3" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="E3" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1230,6 +1298,9 @@
         <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1351,7 +1422,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1473,7 +1544,7 @@
     <col min="1" max="1" width="26.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1508,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
